--- a/src/module_variables.xlsx
+++ b/src/module_variables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mesh" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,16 +16,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>Variable Type</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Size/Nature</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>rtNumPFTable</t>
+  </si>
+  <si>
+    <t>Number of entries in interpolation table for Phase Function</t>
+  </si>
+  <si>
+    <t>rtNumRays</t>
+  </si>
+  <si>
+    <t>Number of rays used for tracing</t>
+  </si>
+  <si>
+    <t>rtNumEmSfs</t>
+  </si>
+  <si>
+    <t>Number of emitting surfaces</t>
+  </si>
+  <si>
+    <t>rtNumCTSfs</t>
+  </si>
+  <si>
+    <t>Number of constant temperature emitting surfaces</t>
+  </si>
+  <si>
+    <t>rtNumCQSfs</t>
+  </si>
+  <si>
+    <t>Number of constant flux emitting surfaces</t>
+  </si>
+  <si>
+    <t>rtNumTrSfs</t>
+  </si>
+  <si>
+    <t>Number of transmitting surfaces</t>
+  </si>
+  <si>
+    <t>rtNumNpSfs</t>
+  </si>
+  <si>
+    <t>Number of non-participating surfaces (adiabatic/specularly reflecting)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -41,6 +110,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,9 +161,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -105,12 +189,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -132,7 +216,122 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="56.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -148,34 +347,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
